--- a/src/Config/FPT.xlsx
+++ b/src/Config/FPT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DAT" sheetId="1" r:id="rId1"/>
@@ -14775,7 +14775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -16018,8 +16018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16123,9 +16123,6 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1">
-        <v>3000205</v>
-      </c>
       <c r="E2" s="1">
         <v>6</v>
       </c>
@@ -16193,6 +16190,9 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3000205</v>
       </c>
       <c r="E3" s="1">
         <v>6</v>
